--- a/data/pca/factorExposure/factorExposure_2016-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01192254740095031</v>
+        <v>0.01350132808197309</v>
       </c>
       <c r="C2">
-        <v>-0.05081357332947644</v>
+        <v>0.04157892983029893</v>
       </c>
       <c r="D2">
-        <v>-0.03640767674221081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06222736093687338</v>
+      </c>
+      <c r="E2">
+        <v>0.06827302870908075</v>
+      </c>
+      <c r="F2">
+        <v>-0.06401836229799449</v>
+      </c>
+      <c r="G2">
+        <v>-0.04060031395567813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05033740201560648</v>
+        <v>0.02977804763573304</v>
       </c>
       <c r="C3">
-        <v>-0.1066103638684512</v>
+        <v>0.07974283242268254</v>
       </c>
       <c r="D3">
-        <v>-0.1003844731483128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08909863882299864</v>
+      </c>
+      <c r="E3">
+        <v>0.06773948222952705</v>
+      </c>
+      <c r="F3">
+        <v>0.01064108830793987</v>
+      </c>
+      <c r="G3">
+        <v>0.0351788973445198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06618378599330312</v>
+        <v>0.05859569239792169</v>
       </c>
       <c r="C4">
-        <v>-0.05414797598526077</v>
+        <v>0.06428697525230567</v>
       </c>
       <c r="D4">
-        <v>-0.02745082148372557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06070025638618602</v>
+      </c>
+      <c r="E4">
+        <v>0.06829984477123009</v>
+      </c>
+      <c r="F4">
+        <v>-0.07927372930444777</v>
+      </c>
+      <c r="G4">
+        <v>0.03756510321049367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03951255280204665</v>
+        <v>0.03568163093205753</v>
       </c>
       <c r="C6">
-        <v>-0.03944371495005607</v>
+        <v>0.03210338566230059</v>
       </c>
       <c r="D6">
-        <v>-0.03330360627209138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06414166428755236</v>
+      </c>
+      <c r="E6">
+        <v>0.07235960522628622</v>
+      </c>
+      <c r="F6">
+        <v>-0.05701339834745341</v>
+      </c>
+      <c r="G6">
+        <v>0.02264992989249951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02247723486976255</v>
+        <v>0.01866125614999115</v>
       </c>
       <c r="C7">
-        <v>-0.04465170215866848</v>
+        <v>0.03894609946220141</v>
       </c>
       <c r="D7">
-        <v>0.005227646921237504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03870858638840901</v>
+      </c>
+      <c r="E7">
+        <v>0.0476198137742298</v>
+      </c>
+      <c r="F7">
+        <v>-0.09820991257934779</v>
+      </c>
+      <c r="G7">
+        <v>0.006233772642492172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.00358109338233671</v>
+        <v>0.003615529061174757</v>
       </c>
       <c r="C8">
-        <v>-0.03012179055418646</v>
+        <v>0.02872661538935578</v>
       </c>
       <c r="D8">
-        <v>-0.02550162534938713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03163453325386435</v>
+      </c>
+      <c r="E8">
+        <v>0.05003626189218698</v>
+      </c>
+      <c r="F8">
+        <v>-0.03552109757013285</v>
+      </c>
+      <c r="G8">
+        <v>0.007865028726570768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03602733731792617</v>
+        <v>0.03739824810749272</v>
       </c>
       <c r="C9">
-        <v>-0.04323995993363357</v>
+        <v>0.05189545215511402</v>
       </c>
       <c r="D9">
-        <v>-0.01509556488228532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04358075213784437</v>
+      </c>
+      <c r="E9">
+        <v>0.05636907347901748</v>
+      </c>
+      <c r="F9">
+        <v>-0.08326001406003743</v>
+      </c>
+      <c r="G9">
+        <v>0.02299870757711681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07234742582459837</v>
+        <v>0.09889726796008733</v>
       </c>
       <c r="C10">
-        <v>0.1959632801324906</v>
+        <v>-0.1977248824506657</v>
       </c>
       <c r="D10">
-        <v>0.007621104530718111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.00467233458253614</v>
+      </c>
+      <c r="E10">
+        <v>0.0431893547167428</v>
+      </c>
+      <c r="F10">
+        <v>-0.04054238014351238</v>
+      </c>
+      <c r="G10">
+        <v>0.008302397854424493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04230529656878149</v>
+        <v>0.03676705282586168</v>
       </c>
       <c r="C11">
-        <v>-0.05412998361522489</v>
+        <v>0.05125503625765915</v>
       </c>
       <c r="D11">
-        <v>-0.01326797222447204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03430770798603339</v>
+      </c>
+      <c r="E11">
+        <v>0.01581459444612208</v>
+      </c>
+      <c r="F11">
+        <v>-0.06571697094038932</v>
+      </c>
+      <c r="G11">
+        <v>0.0145638218499054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04151185957220164</v>
+        <v>0.03754859404263224</v>
       </c>
       <c r="C12">
-        <v>-0.04810862025155651</v>
+        <v>0.04705298504341211</v>
       </c>
       <c r="D12">
-        <v>-0.002634836594234997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02626683951297985</v>
+      </c>
+      <c r="E12">
+        <v>0.02364384347294591</v>
+      </c>
+      <c r="F12">
+        <v>-0.06546180526470129</v>
+      </c>
+      <c r="G12">
+        <v>0.0110870568606807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01488662140944968</v>
+        <v>0.01259464035376971</v>
       </c>
       <c r="C13">
-        <v>-0.05390523991857083</v>
+        <v>0.04643234028627607</v>
       </c>
       <c r="D13">
-        <v>-0.01844582044213365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05805808554107469</v>
+      </c>
+      <c r="E13">
+        <v>0.08105691437158029</v>
+      </c>
+      <c r="F13">
+        <v>-0.09527828377422358</v>
+      </c>
+      <c r="G13">
+        <v>0.01967357599284995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006895913473873005</v>
+        <v>0.004743826532393255</v>
       </c>
       <c r="C14">
-        <v>-0.03897431951328818</v>
+        <v>0.03345809868692393</v>
       </c>
       <c r="D14">
-        <v>0.01273791242631981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02581681185278665</v>
+      </c>
+      <c r="E14">
+        <v>0.03542473299777318</v>
+      </c>
+      <c r="F14">
+        <v>-0.09285702841943363</v>
+      </c>
+      <c r="G14">
+        <v>-0.006747727452645604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003756437461519335</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004985068483012566</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007022592694454041</v>
+      </c>
+      <c r="E15">
+        <v>0.002388995518878385</v>
+      </c>
+      <c r="F15">
+        <v>-0.005382366088623507</v>
+      </c>
+      <c r="G15">
+        <v>1.357766357420783e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03789974816641161</v>
+        <v>0.03435519493048081</v>
       </c>
       <c r="C16">
-        <v>-0.04703051090619526</v>
+        <v>0.04548782022472391</v>
       </c>
       <c r="D16">
-        <v>-0.008755994539333345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02728291647306174</v>
+      </c>
+      <c r="E16">
+        <v>0.0304472239886439</v>
+      </c>
+      <c r="F16">
+        <v>-0.06575073750303706</v>
+      </c>
+      <c r="G16">
+        <v>0.000384748384202858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02236944887540588</v>
+        <v>0.01677961373206334</v>
       </c>
       <c r="C19">
-        <v>-0.06200625285239616</v>
+        <v>0.04974992887559109</v>
       </c>
       <c r="D19">
-        <v>-0.07946335333225789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09004431394864254</v>
+      </c>
+      <c r="E19">
+        <v>0.09661780769896558</v>
+      </c>
+      <c r="F19">
+        <v>-0.07031984517363737</v>
+      </c>
+      <c r="G19">
+        <v>-0.02598571772286705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01779024456623577</v>
+        <v>0.01395673297447176</v>
       </c>
       <c r="C20">
-        <v>-0.04800358271716065</v>
+        <v>0.04126421753128125</v>
       </c>
       <c r="D20">
-        <v>-0.01497608385664986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04018250127601944</v>
+      </c>
+      <c r="E20">
+        <v>0.06705077350361552</v>
+      </c>
+      <c r="F20">
+        <v>-0.07815108357604576</v>
+      </c>
+      <c r="G20">
+        <v>0.005176202437793241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01179814804148837</v>
+        <v>0.009688313246900886</v>
       </c>
       <c r="C21">
-        <v>-0.05015061271524099</v>
+        <v>0.045755683716652</v>
       </c>
       <c r="D21">
-        <v>-0.03869370566022596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06859092910776263</v>
+      </c>
+      <c r="E21">
+        <v>0.09594027900835418</v>
+      </c>
+      <c r="F21">
+        <v>-0.1194695836409159</v>
+      </c>
+      <c r="G21">
+        <v>0.005643857184836641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-7.30338811030159e-05</v>
+        <v>0.002366067069378565</v>
       </c>
       <c r="C22">
-        <v>-0.0001379420456654067</v>
+        <v>0.0246044922849827</v>
       </c>
       <c r="D22">
-        <v>-0.0001147042082537987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03859599427221275</v>
+      </c>
+      <c r="E22">
+        <v>0.02992312747572959</v>
+      </c>
+      <c r="F22">
+        <v>-0.01314718218900385</v>
+      </c>
+      <c r="G22">
+        <v>0.03960760184504226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-7.30338811030159e-05</v>
+        <v>0.00243679086079901</v>
       </c>
       <c r="C23">
-        <v>-0.0001379420456654067</v>
+        <v>0.02474872262881089</v>
       </c>
       <c r="D23">
-        <v>-0.0001147042082537987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03826204445593253</v>
+      </c>
+      <c r="E23">
+        <v>0.03020312457638159</v>
+      </c>
+      <c r="F23">
+        <v>-0.01295731576043423</v>
+      </c>
+      <c r="G23">
+        <v>0.03981991707190217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03445372489802662</v>
+        <v>0.03403623984358167</v>
       </c>
       <c r="C24">
-        <v>-0.05080853401738405</v>
+        <v>0.05357626320297824</v>
       </c>
       <c r="D24">
-        <v>-0.007094164173338068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02728549633671005</v>
+      </c>
+      <c r="E24">
+        <v>0.0275455694592201</v>
+      </c>
+      <c r="F24">
+        <v>-0.07505275946757946</v>
+      </c>
+      <c r="G24">
+        <v>0.008417512212116977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04834010752503071</v>
+        <v>0.04415264113985692</v>
       </c>
       <c r="C25">
-        <v>-0.06126564370343315</v>
+        <v>0.05724264797036763</v>
       </c>
       <c r="D25">
-        <v>0.001534397637553114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02562432052140632</v>
+      </c>
+      <c r="E25">
+        <v>0.02221238270408965</v>
+      </c>
+      <c r="F25">
+        <v>-0.07693027551746721</v>
+      </c>
+      <c r="G25">
+        <v>0.02513772135215517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0150965005379439</v>
+        <v>0.01414679912131312</v>
       </c>
       <c r="C26">
-        <v>-0.0164070791830061</v>
+        <v>0.01773761875505472</v>
       </c>
       <c r="D26">
-        <v>0.0006394131200279722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02475463048590705</v>
+      </c>
+      <c r="E26">
+        <v>0.04002685422093326</v>
+      </c>
+      <c r="F26">
+        <v>-0.06560288212418279</v>
+      </c>
+      <c r="G26">
+        <v>-0.01379533773641919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08681742973238846</v>
+        <v>0.13368511614566</v>
       </c>
       <c r="C28">
-        <v>0.2374010428778168</v>
+        <v>-0.2475797669518927</v>
       </c>
       <c r="D28">
-        <v>0.0065814724260132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01729683411894934</v>
+      </c>
+      <c r="E28">
+        <v>0.0543675406681523</v>
+      </c>
+      <c r="F28">
+        <v>-0.05770883500876727</v>
+      </c>
+      <c r="G28">
+        <v>0.01998537690448718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007586235942635442</v>
+        <v>0.005847253451103777</v>
       </c>
       <c r="C29">
-        <v>-0.03089690744649936</v>
+        <v>0.02935404440488298</v>
       </c>
       <c r="D29">
-        <v>0.0174455470084468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01980425973973324</v>
+      </c>
+      <c r="E29">
+        <v>0.03625495123970875</v>
+      </c>
+      <c r="F29">
+        <v>-0.08669402010670541</v>
+      </c>
+      <c r="G29">
+        <v>0.006610345865174361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05016202312991216</v>
+        <v>0.04281718805943925</v>
       </c>
       <c r="C30">
-        <v>-0.06176393437060232</v>
+        <v>0.06522568939554092</v>
       </c>
       <c r="D30">
-        <v>-0.07544939919773065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1097962685260018</v>
+      </c>
+      <c r="E30">
+        <v>0.06008850263335473</v>
+      </c>
+      <c r="F30">
+        <v>-0.08563496425300215</v>
+      </c>
+      <c r="G30">
+        <v>-0.01398987832481534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0537929850136389</v>
+        <v>0.05541339895019271</v>
       </c>
       <c r="C31">
-        <v>-0.03616434188703196</v>
+        <v>0.05597161834701309</v>
       </c>
       <c r="D31">
-        <v>0.02926242903893145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01269790971452307</v>
+      </c>
+      <c r="E31">
+        <v>0.06149095772341219</v>
+      </c>
+      <c r="F31">
+        <v>-0.0712041855504543</v>
+      </c>
+      <c r="G31">
+        <v>0.04579435585711787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001536097900212803</v>
+        <v>0.004942236283243182</v>
       </c>
       <c r="C32">
-        <v>-0.03853532429912998</v>
+        <v>0.03490726702862786</v>
       </c>
       <c r="D32">
-        <v>-0.04199625741129785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0540803186940777</v>
+      </c>
+      <c r="E32">
+        <v>0.04071038548753298</v>
+      </c>
+      <c r="F32">
+        <v>-0.06649638752521463</v>
+      </c>
+      <c r="G32">
+        <v>-0.01025499186309212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02867874857826413</v>
+        <v>0.0250541008951723</v>
       </c>
       <c r="C33">
-        <v>-0.05949444343372345</v>
+        <v>0.05495177929977225</v>
       </c>
       <c r="D33">
-        <v>-0.04553478324582379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08031308344015885</v>
+      </c>
+      <c r="E33">
+        <v>0.07121649520907837</v>
+      </c>
+      <c r="F33">
+        <v>-0.1166696627434254</v>
+      </c>
+      <c r="G33">
+        <v>0.01911529656782474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04637844239313536</v>
+        <v>0.04154788578315367</v>
       </c>
       <c r="C34">
-        <v>-0.0663950309602698</v>
+        <v>0.06424345177158307</v>
       </c>
       <c r="D34">
-        <v>-0.01047157848779763</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03465643022985682</v>
+      </c>
+      <c r="E34">
+        <v>0.002300009008890307</v>
+      </c>
+      <c r="F34">
+        <v>-0.07655037627038751</v>
+      </c>
+      <c r="G34">
+        <v>0.01038275517441426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01355982703112404</v>
+        <v>0.01318066724189912</v>
       </c>
       <c r="C36">
-        <v>-0.01513960604056747</v>
+        <v>0.01320194884241504</v>
       </c>
       <c r="D36">
-        <v>0.003203478897512419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02707973854394934</v>
+      </c>
+      <c r="E36">
+        <v>0.04623263602939023</v>
+      </c>
+      <c r="F36">
+        <v>-0.07321301607054145</v>
+      </c>
+      <c r="G36">
+        <v>0.008363762608272152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03097482185070845</v>
+        <v>0.02490234570418895</v>
       </c>
       <c r="C38">
-        <v>-0.02924355052384917</v>
+        <v>0.02362399837033443</v>
       </c>
       <c r="D38">
-        <v>0.006727539977736069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02609782411907125</v>
+      </c>
+      <c r="E38">
+        <v>0.04455648688883174</v>
+      </c>
+      <c r="F38">
+        <v>-0.06072227123651021</v>
+      </c>
+      <c r="G38">
+        <v>0.001481737547089525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04655288148345249</v>
+        <v>0.04018210528998829</v>
       </c>
       <c r="C39">
-        <v>-0.07010993798169651</v>
+        <v>0.06848471436716279</v>
       </c>
       <c r="D39">
-        <v>-0.02051843919224296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05487737450047636</v>
+      </c>
+      <c r="E39">
+        <v>0.03241694338925719</v>
+      </c>
+      <c r="F39">
+        <v>-0.08500971796753057</v>
+      </c>
+      <c r="G39">
+        <v>-0.0144901498929331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01420752009460923</v>
+        <v>0.01427263988322613</v>
       </c>
       <c r="C40">
-        <v>-0.05361258863784724</v>
+        <v>0.03975554936980703</v>
       </c>
       <c r="D40">
-        <v>-0.02339553617496928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03738451059695222</v>
+      </c>
+      <c r="E40">
+        <v>0.07260479717931868</v>
+      </c>
+      <c r="F40">
+        <v>-0.07230764154502085</v>
+      </c>
+      <c r="G40">
+        <v>0.03960505830069972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01880163759444973</v>
+        <v>0.0180351110218515</v>
       </c>
       <c r="C41">
-        <v>-0.00512745027942823</v>
+        <v>0.007536966356625003</v>
       </c>
       <c r="D41">
-        <v>0.003088950389264503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01429278966963398</v>
+      </c>
+      <c r="E41">
+        <v>0.04940682435481297</v>
+      </c>
+      <c r="F41">
+        <v>-0.06148218513681104</v>
+      </c>
+      <c r="G41">
+        <v>0.001062923291522213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03700546903903967</v>
+        <v>0.02865470221686477</v>
       </c>
       <c r="C43">
-        <v>-0.02196614323959773</v>
+        <v>0.02195583843615567</v>
       </c>
       <c r="D43">
-        <v>-0.01843894353541901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03970801086893092</v>
+      </c>
+      <c r="E43">
+        <v>0.05958248823191113</v>
+      </c>
+      <c r="F43">
+        <v>-0.07242558837090109</v>
+      </c>
+      <c r="G43">
+        <v>0.02087740923393445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01574298511625045</v>
+        <v>0.01505448223493133</v>
       </c>
       <c r="C44">
-        <v>-0.06449181000543143</v>
+        <v>0.05170162522309888</v>
       </c>
       <c r="D44">
-        <v>-0.01674558503315727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04269722083208795</v>
+      </c>
+      <c r="E44">
+        <v>0.07852756039666998</v>
+      </c>
+      <c r="F44">
+        <v>-0.07361767329824241</v>
+      </c>
+      <c r="G44">
+        <v>-0.007126071560394155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005074553223231575</v>
+        <v>0.007725015592887578</v>
       </c>
       <c r="C46">
-        <v>-0.02236492602325674</v>
+        <v>0.02644264439827601</v>
       </c>
       <c r="D46">
-        <v>0.02130954119414726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01138506112822677</v>
+      </c>
+      <c r="E46">
+        <v>0.04504844284479947</v>
+      </c>
+      <c r="F46">
+        <v>-0.09934650279518016</v>
+      </c>
+      <c r="G46">
+        <v>-0.0006559951692635498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08358028015669385</v>
+        <v>0.08763074437311703</v>
       </c>
       <c r="C47">
-        <v>-0.06526914975741487</v>
+        <v>0.07897842481969583</v>
       </c>
       <c r="D47">
-        <v>0.02694171924061045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01744599256490849</v>
+      </c>
+      <c r="E47">
+        <v>0.06424931927979997</v>
+      </c>
+      <c r="F47">
+        <v>-0.07531526263264517</v>
+      </c>
+      <c r="G47">
+        <v>0.05005840408818377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01866275981874535</v>
+        <v>0.01577380036007538</v>
       </c>
       <c r="C48">
-        <v>-0.01280408346547362</v>
+        <v>0.01705100552521664</v>
       </c>
       <c r="D48">
-        <v>0.01560562677876915</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01694056812855778</v>
+      </c>
+      <c r="E48">
+        <v>0.05744563539913635</v>
+      </c>
+      <c r="F48">
+        <v>-0.08914807204667378</v>
+      </c>
+      <c r="G48">
+        <v>0.007925567615235812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08080816284777299</v>
+        <v>0.07131565420714882</v>
       </c>
       <c r="C50">
-        <v>-0.07262194853553865</v>
+        <v>0.0726426471501698</v>
       </c>
       <c r="D50">
-        <v>0.02867105318175722</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.004253208133108932</v>
+      </c>
+      <c r="E50">
+        <v>0.0673637833763229</v>
+      </c>
+      <c r="F50">
+        <v>-0.05797717088600407</v>
+      </c>
+      <c r="G50">
+        <v>0.06900896719228151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01562808050552013</v>
+        <v>0.01103328555810187</v>
       </c>
       <c r="C51">
-        <v>-0.04870975456066658</v>
+        <v>0.03334978155075832</v>
       </c>
       <c r="D51">
-        <v>-0.02356566524553686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04952014174430159</v>
+      </c>
+      <c r="E51">
+        <v>0.03562860565859991</v>
+      </c>
+      <c r="F51">
+        <v>-0.07616002527608415</v>
+      </c>
+      <c r="G51">
+        <v>-0.02105914123914902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0819588725039032</v>
+        <v>0.0939677108494003</v>
       </c>
       <c r="C53">
-        <v>-0.07707329299522489</v>
+        <v>0.08671995733180943</v>
       </c>
       <c r="D53">
-        <v>0.0388259801445647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03990187789094587</v>
+      </c>
+      <c r="E53">
+        <v>0.06156367207809624</v>
+      </c>
+      <c r="F53">
+        <v>-0.08558639795486912</v>
+      </c>
+      <c r="G53">
+        <v>0.06253838541452664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03003151926407826</v>
+        <v>0.02764773027902314</v>
       </c>
       <c r="C54">
-        <v>-0.02601864599385444</v>
+        <v>0.02698843241431112</v>
       </c>
       <c r="D54">
-        <v>0.0006609040772193446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02923630505114772</v>
+      </c>
+      <c r="E54">
+        <v>0.04514854836325446</v>
+      </c>
+      <c r="F54">
+        <v>-0.09768227337003625</v>
+      </c>
+      <c r="G54">
+        <v>0.00744424975099793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0752449591155518</v>
+        <v>0.08522570454288064</v>
       </c>
       <c r="C55">
-        <v>-0.05824771315901697</v>
+        <v>0.06947630214697209</v>
       </c>
       <c r="D55">
-        <v>0.04649545171026792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04771152858764807</v>
+      </c>
+      <c r="E55">
+        <v>0.04806073296588245</v>
+      </c>
+      <c r="F55">
+        <v>-0.06005846040148345</v>
+      </c>
+      <c r="G55">
+        <v>0.05074394255460483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.144931095869655</v>
+        <v>0.1475563346167618</v>
       </c>
       <c r="C56">
-        <v>-0.09219530242096456</v>
+        <v>0.1040151613792431</v>
       </c>
       <c r="D56">
-        <v>0.04280198548286283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04913912392458732</v>
+      </c>
+      <c r="E56">
+        <v>0.05112086438696822</v>
+      </c>
+      <c r="F56">
+        <v>-0.04505872011743284</v>
+      </c>
+      <c r="G56">
+        <v>0.05911266980865389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001383585431460515</v>
+        <v>0.0007359469142135082</v>
       </c>
       <c r="C57">
-        <v>0.001889756226079756</v>
+        <v>-0.0008847527949149174</v>
       </c>
       <c r="D57">
-        <v>-0.01556368249528175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01214572538419906</v>
+      </c>
+      <c r="E57">
+        <v>0.008001360207461297</v>
+      </c>
+      <c r="F57">
+        <v>-0.007431066287109216</v>
+      </c>
+      <c r="G57">
+        <v>0.002158704957564379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05436973402371383</v>
+        <v>0.03025040718594823</v>
       </c>
       <c r="C58">
-        <v>-0.02866735957221291</v>
+        <v>0.03435212287225023</v>
       </c>
       <c r="D58">
-        <v>-0.7330626360143523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4127638304137944</v>
+      </c>
+      <c r="E58">
+        <v>0.6602247310788981</v>
+      </c>
+      <c r="F58">
+        <v>0.5467618297772845</v>
+      </c>
+      <c r="G58">
+        <v>-0.06125182167174145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.129666482979976</v>
+        <v>0.1438257180620512</v>
       </c>
       <c r="C59">
-        <v>0.1976422037774685</v>
+        <v>-0.1875719778805307</v>
       </c>
       <c r="D59">
-        <v>-0.0194898886570654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03066236737601939</v>
+      </c>
+      <c r="E59">
+        <v>0.02588522401522828</v>
+      </c>
+      <c r="F59">
+        <v>-0.02023533550574797</v>
+      </c>
+      <c r="G59">
+        <v>-0.02996857669799205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3109743442507329</v>
+        <v>0.2829150049584663</v>
       </c>
       <c r="C60">
-        <v>-0.08693300442410533</v>
+        <v>0.09780952676246002</v>
       </c>
       <c r="D60">
-        <v>-0.1185231340302211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2173458765773868</v>
+      </c>
+      <c r="E60">
+        <v>-0.266275664233817</v>
+      </c>
+      <c r="F60">
+        <v>0.09389264088891205</v>
+      </c>
+      <c r="G60">
+        <v>0.04949904434479392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04414112741345559</v>
+        <v>0.04137335482611577</v>
       </c>
       <c r="C61">
-        <v>-0.06553081900956879</v>
+        <v>0.0628967892771007</v>
       </c>
       <c r="D61">
-        <v>-0.01458237217207107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04612784318249225</v>
+      </c>
+      <c r="E61">
+        <v>0.03669831940162563</v>
+      </c>
+      <c r="F61">
+        <v>-0.07645582890851003</v>
+      </c>
+      <c r="G61">
+        <v>0.01181007456906116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01603155645853492</v>
+        <v>0.01552071487463971</v>
       </c>
       <c r="C63">
-        <v>-0.03527443780055584</v>
+        <v>0.0324709015947347</v>
       </c>
       <c r="D63">
-        <v>0.007826489791742639</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02243930623098356</v>
+      </c>
+      <c r="E63">
+        <v>0.04967588543214019</v>
+      </c>
+      <c r="F63">
+        <v>-0.06907861720719241</v>
+      </c>
+      <c r="G63">
+        <v>0.02744800998268164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04953405846282522</v>
+        <v>0.0560264000726837</v>
       </c>
       <c r="C64">
-        <v>-0.04205089097756333</v>
+        <v>0.05475680479563205</v>
       </c>
       <c r="D64">
-        <v>0.0001249549150705209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007575924557770231</v>
+      </c>
+      <c r="E64">
+        <v>0.03048912743346629</v>
+      </c>
+      <c r="F64">
+        <v>-0.08614679013174593</v>
+      </c>
+      <c r="G64">
+        <v>0.00954185199998497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08784204833516379</v>
+        <v>0.06999495716557383</v>
       </c>
       <c r="C65">
-        <v>-0.03121332215272926</v>
+        <v>0.03275570843317799</v>
       </c>
       <c r="D65">
-        <v>-0.05293266607304432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08661047371832072</v>
+      </c>
+      <c r="E65">
+        <v>0.03691133061193792</v>
+      </c>
+      <c r="F65">
+        <v>-0.006899648822396963</v>
+      </c>
+      <c r="G65">
+        <v>0.004643832323656223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06517186588526921</v>
+        <v>0.05293369503644041</v>
       </c>
       <c r="C66">
-        <v>-0.1000767587222141</v>
+        <v>0.09066536534256321</v>
       </c>
       <c r="D66">
-        <v>-0.04291658978402604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08204194117946663</v>
+      </c>
+      <c r="E66">
+        <v>0.03834445242561861</v>
+      </c>
+      <c r="F66">
+        <v>-0.08632966725694735</v>
+      </c>
+      <c r="G66">
+        <v>0.003109639271235067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05318011313039844</v>
+        <v>0.04683961878251142</v>
       </c>
       <c r="C67">
-        <v>-0.0334305719596253</v>
+        <v>0.03005620459136866</v>
       </c>
       <c r="D67">
-        <v>0.009064240683744774</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01280314474023683</v>
+      </c>
+      <c r="E67">
+        <v>0.02494092169659991</v>
+      </c>
+      <c r="F67">
+        <v>-0.04995449248288723</v>
+      </c>
+      <c r="G67">
+        <v>0.008397455381872547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1169647469378718</v>
+        <v>0.1486341575743349</v>
       </c>
       <c r="C68">
-        <v>0.2823581314264629</v>
+        <v>-0.2509847613612811</v>
       </c>
       <c r="D68">
-        <v>0.01098631630607149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01789277064311608</v>
+      </c>
+      <c r="E68">
+        <v>0.0433810269697143</v>
+      </c>
+      <c r="F68">
+        <v>-0.01347815212095856</v>
+      </c>
+      <c r="G68">
+        <v>0.01068174303105135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09070056945480408</v>
+        <v>0.08739794317078868</v>
       </c>
       <c r="C69">
-        <v>-0.06385677179776997</v>
+        <v>0.08592175063208568</v>
       </c>
       <c r="D69">
-        <v>0.03920409089858307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00914031293018565</v>
+      </c>
+      <c r="E69">
+        <v>0.04714424446945859</v>
+      </c>
+      <c r="F69">
+        <v>-0.09206132126113351</v>
+      </c>
+      <c r="G69">
+        <v>0.02727384612645132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1109803944464444</v>
+        <v>0.1415743566638852</v>
       </c>
       <c r="C71">
-        <v>0.2470817619778056</v>
+        <v>-0.2356355915616098</v>
       </c>
       <c r="D71">
-        <v>-0.02417887214014506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01396940735539156</v>
+      </c>
+      <c r="E71">
+        <v>0.06209773844865571</v>
+      </c>
+      <c r="F71">
+        <v>-0.05499735958076069</v>
+      </c>
+      <c r="G71">
+        <v>0.03545058393739475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09064364149891357</v>
+        <v>0.09832722738453339</v>
       </c>
       <c r="C72">
-        <v>-0.0499372916291146</v>
+        <v>0.05671277281964794</v>
       </c>
       <c r="D72">
-        <v>-0.003503088906317781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0282097086668495</v>
+      </c>
+      <c r="E72">
+        <v>0.0154744917073118</v>
+      </c>
+      <c r="F72">
+        <v>-0.07111970307607594</v>
+      </c>
+      <c r="G72">
+        <v>0.03356949364059717</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4175776264756004</v>
+        <v>0.3481341611470322</v>
       </c>
       <c r="C73">
-        <v>-0.04966348277408409</v>
+        <v>0.07765456184829499</v>
       </c>
       <c r="D73">
-        <v>-0.3214659681264938</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.46104932219232</v>
+      </c>
+      <c r="E73">
+        <v>-0.4795366388541827</v>
+      </c>
+      <c r="F73">
+        <v>0.2516128163073554</v>
+      </c>
+      <c r="G73">
+        <v>0.1068912428969685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1096654010548905</v>
+        <v>0.1115327127264111</v>
       </c>
       <c r="C74">
-        <v>-0.09755493041639372</v>
+        <v>0.09748470259759782</v>
       </c>
       <c r="D74">
-        <v>0.02049324899777192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03084971869399152</v>
+      </c>
+      <c r="E74">
+        <v>0.06493662562918789</v>
+      </c>
+      <c r="F74">
+        <v>-0.04871024653918204</v>
+      </c>
+      <c r="G74">
+        <v>0.07298760666723245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2549203338964038</v>
+        <v>0.2579007240219581</v>
       </c>
       <c r="C75">
-        <v>-0.1000627556749942</v>
+        <v>0.1293633283902117</v>
       </c>
       <c r="D75">
-        <v>0.08529398217848783</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1274873157493014</v>
+      </c>
+      <c r="E75">
+        <v>0.07011127326808854</v>
+      </c>
+      <c r="F75">
+        <v>-0.01592653111777684</v>
+      </c>
+      <c r="G75">
+        <v>0.07421846399882952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1135670957387142</v>
+        <v>0.1280998877948976</v>
       </c>
       <c r="C76">
-        <v>-0.09032637533341502</v>
+        <v>0.09900408663049072</v>
       </c>
       <c r="D76">
-        <v>0.04108726477083301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05729773896413123</v>
+      </c>
+      <c r="E76">
+        <v>0.07772879764684075</v>
+      </c>
+      <c r="F76">
+        <v>-0.06951772041746593</v>
+      </c>
+      <c r="G76">
+        <v>0.05690831920668356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07920462359285314</v>
+        <v>0.06379006966192002</v>
       </c>
       <c r="C77">
-        <v>-0.06098518545371663</v>
+        <v>0.07357076882563231</v>
       </c>
       <c r="D77">
-        <v>-0.05653367878396806</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06417641071930807</v>
+      </c>
+      <c r="E77">
+        <v>0.09366396647656773</v>
+      </c>
+      <c r="F77">
+        <v>-0.1076349278964155</v>
+      </c>
+      <c r="G77">
+        <v>-0.1344318723850837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04963391718173928</v>
+        <v>0.04385319221778976</v>
       </c>
       <c r="C78">
-        <v>-0.049606330597778</v>
+        <v>0.06142021909796155</v>
       </c>
       <c r="D78">
-        <v>-0.02285223055498953</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06616459536512775</v>
+      </c>
+      <c r="E78">
+        <v>0.04289287326848547</v>
+      </c>
+      <c r="F78">
+        <v>-0.0848835790407495</v>
+      </c>
+      <c r="G78">
+        <v>0.005111969913804083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02658402550641778</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03925231489186627</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06096162227741485</v>
+      </c>
+      <c r="E79">
+        <v>0.05927017414682111</v>
+      </c>
+      <c r="F79">
+        <v>-0.03502988840001098</v>
+      </c>
+      <c r="G79">
+        <v>0.06837068068815273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04648510345959939</v>
+        <v>0.0346188961259585</v>
       </c>
       <c r="C80">
-        <v>-0.05410565059586278</v>
+        <v>0.05516298117184164</v>
       </c>
       <c r="D80">
-        <v>-0.02900616869721734</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04421586663996796</v>
+      </c>
+      <c r="E80">
+        <v>0.01492329879854781</v>
+      </c>
+      <c r="F80">
+        <v>-0.03233051698106177</v>
+      </c>
+      <c r="G80">
+        <v>-0.04690167777545903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1406588510994514</v>
+        <v>0.1407470787584976</v>
       </c>
       <c r="C81">
-        <v>-0.07791520429767977</v>
+        <v>0.09381652328142094</v>
       </c>
       <c r="D81">
-        <v>0.06402693114592185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1002812812261223</v>
+      </c>
+      <c r="E81">
+        <v>0.08494347135994749</v>
+      </c>
+      <c r="F81">
+        <v>-0.01140276812038444</v>
+      </c>
+      <c r="G81">
+        <v>0.05149315365043505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1608085592654993</v>
+        <v>0.2031099683068111</v>
       </c>
       <c r="C82">
-        <v>-0.06927474656154106</v>
+        <v>0.1371422380373223</v>
       </c>
       <c r="D82">
-        <v>0.1595900438996058</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2355082972860397</v>
+      </c>
+      <c r="E82">
+        <v>0.005510089597560647</v>
+      </c>
+      <c r="F82">
+        <v>-0.1030840846288723</v>
+      </c>
+      <c r="G82">
+        <v>0.04868496223490591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04127485531643365</v>
+        <v>0.02833211670812696</v>
       </c>
       <c r="C83">
-        <v>-0.02628849734085156</v>
+        <v>0.04237272551773695</v>
       </c>
       <c r="D83">
-        <v>-0.03116203213284858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03386688651826578</v>
+      </c>
+      <c r="E83">
+        <v>0.01967360735810235</v>
+      </c>
+      <c r="F83">
+        <v>-0.0400388873032778</v>
+      </c>
+      <c r="G83">
+        <v>-0.02200896536379822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.848934498813603e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002229399550472729</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0001738096455450353</v>
+      </c>
+      <c r="E84">
+        <v>-9.536211466099198e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0004893659385800488</v>
+      </c>
+      <c r="G84">
+        <v>0.0003376228326984913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2207854347189161</v>
+        <v>0.2038378168382622</v>
       </c>
       <c r="C85">
-        <v>-0.1027105410162355</v>
+        <v>0.1166098840019705</v>
       </c>
       <c r="D85">
-        <v>0.1126813974410157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09736492609903248</v>
+      </c>
+      <c r="E85">
+        <v>0.0004826146342070382</v>
+      </c>
+      <c r="F85">
+        <v>0.008363194394167916</v>
+      </c>
+      <c r="G85">
+        <v>0.1246648138279444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01069635808281598</v>
+        <v>0.01085199389539688</v>
       </c>
       <c r="C86">
-        <v>-0.04170081026876011</v>
+        <v>0.03196775365421518</v>
       </c>
       <c r="D86">
-        <v>-0.04252459474461609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06529831169754724</v>
+      </c>
+      <c r="E86">
+        <v>0.06227151874233945</v>
+      </c>
+      <c r="F86">
+        <v>-0.124680408893547</v>
+      </c>
+      <c r="G86">
+        <v>-0.01606407400827374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02512592717221029</v>
+        <v>0.02268107984216298</v>
       </c>
       <c r="C87">
-        <v>-0.01076887000791347</v>
+        <v>0.02112888936376179</v>
       </c>
       <c r="D87">
-        <v>-0.09551673346994684</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09099375653031035</v>
+      </c>
+      <c r="E87">
+        <v>0.1106432918667886</v>
+      </c>
+      <c r="F87">
+        <v>-0.06597626583114412</v>
+      </c>
+      <c r="G87">
+        <v>-0.03976591781826436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.106571959523496</v>
+        <v>0.09301008117800352</v>
       </c>
       <c r="C88">
-        <v>-0.06684713686807631</v>
+        <v>0.06248805820396636</v>
       </c>
       <c r="D88">
-        <v>0.02985893510084283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005151231386335945</v>
+      </c>
+      <c r="E88">
+        <v>0.04328243921955465</v>
+      </c>
+      <c r="F88">
+        <v>-0.06984450710403671</v>
+      </c>
+      <c r="G88">
+        <v>-0.02776018702596687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.175396579717239</v>
+        <v>0.2181545781743948</v>
       </c>
       <c r="C89">
-        <v>0.3830624340243519</v>
+        <v>-0.3803101828275316</v>
       </c>
       <c r="D89">
-        <v>0.02143211224888544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005118083925352633</v>
+      </c>
+      <c r="E89">
+        <v>0.06160400463513453</v>
+      </c>
+      <c r="F89">
+        <v>-0.07667566373500077</v>
+      </c>
+      <c r="G89">
+        <v>-0.06425181066392892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1703310573496351</v>
+        <v>0.1983230077631571</v>
       </c>
       <c r="C90">
-        <v>0.3417127332207868</v>
+        <v>-0.3154590771305219</v>
       </c>
       <c r="D90">
-        <v>0.01941305979845705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01222068262956224</v>
+      </c>
+      <c r="E90">
+        <v>0.07187696037145518</v>
+      </c>
+      <c r="F90">
+        <v>-0.04307628572308882</v>
+      </c>
+      <c r="G90">
+        <v>-0.0125478857401632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1910873494114098</v>
+        <v>0.1862377492365928</v>
       </c>
       <c r="C91">
-        <v>-0.1233403732446663</v>
+        <v>0.1394735172117822</v>
       </c>
       <c r="D91">
-        <v>0.08387860646472589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1082699443374269</v>
+      </c>
+      <c r="E91">
+        <v>0.06174425486929962</v>
+      </c>
+      <c r="F91">
+        <v>-0.03678822717937773</v>
+      </c>
+      <c r="G91">
+        <v>0.05791161277533308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1612276317496351</v>
+        <v>0.1800518985628661</v>
       </c>
       <c r="C92">
-        <v>0.2917521655515073</v>
+        <v>-0.2860055089509538</v>
       </c>
       <c r="D92">
-        <v>0.00542682287474099</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.004602124788095234</v>
+      </c>
+      <c r="E92">
+        <v>0.06984163489735576</v>
+      </c>
+      <c r="F92">
+        <v>-0.08346371675772433</v>
+      </c>
+      <c r="G92">
+        <v>-0.01128944475347886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1950221199113608</v>
+        <v>0.2218294914249367</v>
       </c>
       <c r="C93">
-        <v>0.3431780252841584</v>
+        <v>-0.3196538088628331</v>
       </c>
       <c r="D93">
-        <v>0.01736584582786713</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004210064094591833</v>
+      </c>
+      <c r="E93">
+        <v>0.0468561782770917</v>
+      </c>
+      <c r="F93">
+        <v>-0.04265340296496421</v>
+      </c>
+      <c r="G93">
+        <v>0.02698712781410547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3395440938043189</v>
+        <v>0.3444476979764619</v>
       </c>
       <c r="C94">
-        <v>-0.1379533946241166</v>
+        <v>0.176525866495262</v>
       </c>
       <c r="D94">
-        <v>0.4300861097777653</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5064573881887265</v>
+      </c>
+      <c r="E94">
+        <v>0.04812436783383261</v>
+      </c>
+      <c r="F94">
+        <v>0.4494639687542521</v>
+      </c>
+      <c r="G94">
+        <v>-0.3212636427391247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.111390328952217</v>
+        <v>0.08553045233543791</v>
       </c>
       <c r="C95">
-        <v>-0.07762989405520833</v>
+        <v>0.06842635728312746</v>
       </c>
       <c r="D95">
-        <v>-0.1219725371715278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1690342718649084</v>
+      </c>
+      <c r="E95">
+        <v>-0.1059446836969643</v>
+      </c>
+      <c r="F95">
+        <v>-0.2087617403557065</v>
+      </c>
+      <c r="G95">
+        <v>-0.8709303052121035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1987078663296237</v>
+        <v>0.188678416655737</v>
       </c>
       <c r="C98">
-        <v>-0.01475466878910587</v>
+        <v>0.04083207365884307</v>
       </c>
       <c r="D98">
-        <v>-0.1235486122254146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1843325006026121</v>
+      </c>
+      <c r="E98">
+        <v>-0.1515042722367337</v>
+      </c>
+      <c r="F98">
+        <v>0.03654503014838408</v>
+      </c>
+      <c r="G98">
+        <v>0.09668732285965094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007524143963165782</v>
+        <v>0.005899197488098484</v>
       </c>
       <c r="C101">
-        <v>-0.03091636921009014</v>
+        <v>0.02909438060713746</v>
       </c>
       <c r="D101">
-        <v>0.01799449430912985</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01927316255091841</v>
+      </c>
+      <c r="E101">
+        <v>0.03691891486895078</v>
+      </c>
+      <c r="F101">
+        <v>-0.08638908876739422</v>
+      </c>
+      <c r="G101">
+        <v>0.005535818399173723</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1233772192606714</v>
+        <v>0.1249615029331175</v>
       </c>
       <c r="C102">
-        <v>-0.07077523146098949</v>
+        <v>0.09703105974705271</v>
       </c>
       <c r="D102">
-        <v>0.02880681469456659</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04645893191436042</v>
+      </c>
+      <c r="E102">
+        <v>-0.003916722866872131</v>
+      </c>
+      <c r="F102">
+        <v>-0.0451175654481814</v>
+      </c>
+      <c r="G102">
+        <v>0.01768554040047554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
